--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8E6C6-3CED-4A52-A1D5-591162C3D252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507AF3A4-7D59-4A1C-990A-8605EA170919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Concepts</t>
   </si>
@@ -122,13 +122,46 @@
   </si>
   <si>
     <t>public,private,protected,default,encapsulation</t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>https://github.com/AishwaryaGuledgudda/KTG-Assignments.git</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>file io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi threading </t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java 8 features </t>
+  </si>
+  <si>
+    <t>case study</t>
+  </si>
+  <si>
+    <t>jpa+hibernate</t>
+  </si>
+  <si>
+    <t>spring+springboot</t>
+  </si>
+  <si>
+    <t>html+css+js+angular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +187,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,10 +287,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -262,8 +304,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I165"/>
+  <dimension ref="A3:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +600,7 @@
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="31.88671875" customWidth="1"/>
+    <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -754,7 +799,9 @@
       <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
@@ -764,117 +811,150 @@
       <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E17" s="7">
+        <v>44886</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M23" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E29" s="7"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E30" s="7"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1814,8 +1894,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M23" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507AF3A4-7D59-4A1C-990A-8605EA170919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C8D70F-FBF9-4742-AE92-2CA0193C47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Concepts</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>html+css+js+angular</t>
+  </si>
+  <si>
+    <t>String assignments shared</t>
+  </si>
+  <si>
+    <t>workon assignments</t>
   </si>
 </sst>
 </file>
@@ -588,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,17 +832,27 @@
       <c r="F17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>44887</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C8D70F-FBF9-4742-AE92-2CA0193C47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFDD52-125F-44FC-945D-B30B2269EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Concepts</t>
   </si>
@@ -130,12 +130,6 @@
     <t>https://github.com/AishwaryaGuledgudda/KTG-Assignments.git</t>
   </si>
   <si>
-    <t>Exception handling</t>
-  </si>
-  <si>
-    <t>file io</t>
-  </si>
-  <si>
     <t xml:space="preserve">multi threading </t>
   </si>
   <si>
@@ -161,6 +155,18 @@
   </si>
   <si>
     <t>workon assignments</t>
+  </si>
+  <si>
+    <t>Exception handling,try,catch</t>
+  </si>
+  <si>
+    <t>finally,throw,throws</t>
+  </si>
+  <si>
+    <t>Exceptions Assignments</t>
+  </si>
+  <si>
+    <t>file IO,Questions</t>
   </si>
 </sst>
 </file>
@@ -594,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -845,30 +851,34 @@
         <v>44887</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7">
+        <v>44888</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4"/>
@@ -877,7 +887,7 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -886,7 +896,7 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -895,7 +905,7 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -907,7 +917,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -916,7 +926,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -934,7 +944,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -943,7 +953,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -951,7 +961,9 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E29" s="7"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFDD52-125F-44FC-945D-B30B2269EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF62F1F7-BB62-4E8E-92EB-A5965B06F6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Concepts</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>file IO,Questions</t>
+  </si>
+  <si>
+    <t>1:20 mintues</t>
+  </si>
+  <si>
+    <t>1 :10 mintues</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
   <dimension ref="A3:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +845,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>41</v>
@@ -869,19 +875,27 @@
       <c r="F19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="7"/>
+      <c r="E20" s="7">
+        <v>44889</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF62F1F7-BB62-4E8E-92EB-A5965B06F6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C29413-81EC-4650-A593-4F91235F6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Concepts</t>
   </si>
@@ -130,9 +130,6 @@
     <t>https://github.com/AishwaryaGuledgudda/KTG-Assignments.git</t>
   </si>
   <si>
-    <t xml:space="preserve">multi threading </t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -169,10 +166,13 @@
     <t>file IO,Questions</t>
   </si>
   <si>
-    <t>1:20 mintues</t>
-  </si>
-  <si>
     <t>1 :10 mintues</t>
+  </si>
+  <si>
+    <t>multi threading ,intro,thread creation,thread methods</t>
+  </si>
+  <si>
+    <t>1:20 minutes</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A3:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H20" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,10 +845,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -857,13 +857,13 @@
         <v>44887</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -873,13 +873,13 @@
         <v>44888</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -888,10 +888,10 @@
         <v>44889</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>28</v>
@@ -899,18 +899,24 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E21" s="4"/>
+      <c r="E21" s="7">
+        <v>44893</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -919,7 +925,7 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -931,7 +937,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -940,7 +946,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -949,7 +955,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -958,7 +964,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -967,7 +973,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -976,7 +982,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C29413-81EC-4650-A593-4F91235F6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48DAF89-82B7-4771-961B-4EC7B74063CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Concepts</t>
   </si>
@@ -130,12 +130,6 @@
     <t>https://github.com/AishwaryaGuledgudda/KTG-Assignments.git</t>
   </si>
   <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java 8 features </t>
-  </si>
-  <si>
     <t>case study</t>
   </si>
   <si>
@@ -173,6 +167,18 @@
   </si>
   <si>
     <t>1:20 minutes</t>
+  </si>
+  <si>
+    <t>java 8 features ,collection</t>
+  </si>
+  <si>
+    <t>life cycle,thread class methods,synchronization,thread communication</t>
+  </si>
+  <si>
+    <t>https://www.javamadesoeasy.com/2015/03/thread-states-thread-life-cycle-in-java.html</t>
+  </si>
+  <si>
+    <t>complete multi threading</t>
   </si>
 </sst>
 </file>
@@ -309,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -323,6 +329,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,15 +613,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="50.88671875" customWidth="1"/>
+    <col min="6" max="6" width="62.5546875" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="31.88671875" customWidth="1"/>
@@ -845,10 +852,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -857,13 +864,13 @@
         <v>44887</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -873,13 +880,13 @@
         <v>44888</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -888,10 +895,10 @@
         <v>44889</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>28</v>
@@ -903,10 +910,10 @@
         <v>44893</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>28</v>
@@ -914,18 +921,26 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E22" s="4"/>
+      <c r="E22" s="7">
+        <v>44894</v>
+      </c>
       <c r="F22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -937,7 +952,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -946,7 +961,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -955,7 +970,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -964,7 +979,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -973,7 +988,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -982,7 +997,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1944,9 +1959,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M23" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
+    <hyperlink ref="I22" r:id="rId2" xr:uid="{A641A848-C7AE-40A6-BB43-B3B71DBEAE47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48DAF89-82B7-4771-961B-4EC7B74063CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73E784-EB83-49BE-B8CA-4FFCCFCA2287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Concepts</t>
   </si>
@@ -133,9 +133,6 @@
     <t>case study</t>
   </si>
   <si>
-    <t>jpa+hibernate</t>
-  </si>
-  <si>
     <t>spring+springboot</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>1:20 minutes</t>
   </si>
   <si>
-    <t>java 8 features ,collection</t>
-  </si>
-  <si>
     <t>life cycle,thread class methods,synchronization,thread communication</t>
   </si>
   <si>
@@ -179,6 +173,18 @@
   </si>
   <si>
     <t>complete multi threading</t>
+  </si>
+  <si>
+    <t>collection,list,set and few methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list and set methods map </t>
+  </si>
+  <si>
+    <t>1:20mintues</t>
+  </si>
+  <si>
+    <t>case study,comparable ,comparator</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
   <dimension ref="A3:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,10 +858,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -864,13 +870,13 @@
         <v>44887</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -880,13 +886,13 @@
         <v>44888</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -895,10 +901,10 @@
         <v>44889</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>28</v>
@@ -910,10 +916,10 @@
         <v>44893</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>28</v>
@@ -925,24 +931,28 @@
         <v>44894</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E23" s="7">
+        <v>44895</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="M23" s="10" t="s">
@@ -950,27 +960,35 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E24" s="4"/>
+      <c r="E24" s="7">
+        <v>44896</v>
+      </c>
       <c r="F24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E25" s="4"/>
+      <c r="E25" s="7">
+        <v>44897</v>
+      </c>
       <c r="F25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -988,7 +1006,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\KTG\shankar\9-10 pm oct 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73E784-EB83-49BE-B8CA-4FFCCFCA2287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D5FB5-8ED3-4681-A013-745C38ED7354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Concepts</t>
   </si>
@@ -130,15 +130,6 @@
     <t>https://github.com/AishwaryaGuledgudda/KTG-Assignments.git</t>
   </si>
   <si>
-    <t>case study</t>
-  </si>
-  <si>
-    <t>spring+springboot</t>
-  </si>
-  <si>
-    <t>html+css+js+angular</t>
-  </si>
-  <si>
     <t>String assignments shared</t>
   </si>
   <si>
@@ -185,6 +176,30 @@
   </si>
   <si>
     <t>case study,comparable ,comparator</t>
+  </si>
+  <si>
+    <t>https://github.com/afreenfquazi/Collectiontask.git</t>
+  </si>
+  <si>
+    <t>collections task</t>
+  </si>
+  <si>
+    <t>1:20 mintues</t>
+  </si>
+  <si>
+    <t>Layered Architecture  case study</t>
+  </si>
+  <si>
+    <t>Java8 features</t>
+  </si>
+  <si>
+    <t>Database MYSQL</t>
+  </si>
+  <si>
+    <t>constraints,select querys</t>
+  </si>
+  <si>
+    <t>JDBC</t>
   </si>
 </sst>
 </file>
@@ -321,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -336,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -619,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,10 +876,10 @@
         <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -870,13 +888,13 @@
         <v>44887</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -886,13 +904,13 @@
         <v>44888</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -901,10 +919,10 @@
         <v>44889</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>28</v>
@@ -916,10 +934,10 @@
         <v>44893</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>28</v>
@@ -931,16 +949,16 @@
         <v>44894</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -948,7 +966,7 @@
         <v>44895</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>8</v>
@@ -964,10 +982,10 @@
         <v>44896</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -977,61 +995,96 @@
         <v>44897</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E26" s="4"/>
+      <c r="E26" s="7">
+        <v>44902</v>
+      </c>
       <c r="F26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E27" s="4"/>
+      <c r="E27" s="7">
+        <v>44903</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G27" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E28" s="4"/>
+      <c r="E28" s="7">
+        <v>44904</v>
+      </c>
       <c r="F28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G28" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E29" s="7"/>
+      <c r="E29" s="7">
+        <v>44907</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="G29" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E30" s="7"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="E30" s="7">
+        <v>44908</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E31" s="7"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="E31" s="7">
+        <v>44909</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
